--- a/db/support/cbdmat_markers.xlsx
+++ b/db/support/cbdmat_markers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://childreninfamilies-my.sharepoint.com/personal/meas_kiry_childreninfamilies_org/Documents/Microsoft Teams Chat Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_98EC1EEF06F20B30981045321473C1EEC7FDF072" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F153B51D-FD68-4F27-A27E-1F4FCD0F37C4}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_98EC1EEF06F20B30981045321473C1EEC7FDF072" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E001F23E-F354-4763-8702-CD83DD4BD160}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="6720" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="6720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6 moths_៦ ខែ" sheetId="1" r:id="rId1"/>
@@ -336,7 +336,7 @@
     <t>និយាយ ៦ ឬលើសពី ៦ពាក្យ</t>
   </si>
   <si>
-    <t>walk_backward_steps)</t>
+    <t>walk_backward_steps</t>
   </si>
   <si>
     <t>Walk backward (≥2 steps)?</t>
@@ -754,7 +754,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -837,7 +837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A1:XFD6"/>
     </sheetView>
   </sheetViews>
@@ -1335,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/db/support/cbdmat_markers.xlsx
+++ b/db/support/cbdmat_markers.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://childreninfamilies-my.sharepoint.com/personal/meas_kiry_childreninfamilies_org/Documents/Microsoft Teams Chat Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\kiry\Documents\oscar-web\db\support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_98EC1EEF06F20B30981045321473C1EEC7FDF072" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E001F23E-F354-4763-8702-CD83DD4BD160}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69F10BC-3590-4D41-915B-960D1AD62AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="6720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="6 moths_៦ ខែ" sheetId="1" r:id="rId1"/>
+    <sheet name="6 months_៦ ខែ" sheetId="1" r:id="rId1"/>
     <sheet name="9 months_៩ ខែ" sheetId="2" r:id="rId2"/>
     <sheet name="1 year_១ ឆ្នាំ" sheetId="3" r:id="rId3"/>
     <sheet name="1.5 years_១ ឆ្នាំកន្លះ" sheetId="4" r:id="rId4"/>
@@ -753,7 +753,7 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -763,7 +763,7 @@
     <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -774,7 +774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="15">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -783,7 +783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="15">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1335,7 +1335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>

--- a/db/support/cbdmat_markers.xlsx
+++ b/db/support/cbdmat_markers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\kiry\Documents\oscar-web\db\support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69F10BC-3590-4D41-915B-960D1AD62AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DCEB88-F69C-40CD-B0CF-89278C5B13A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3525" yWindow="4215" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6 months_៦ ខែ" sheetId="1" r:id="rId1"/>
@@ -24,18 +24,7 @@
     <sheet name="5 years_៥ ឆ្នាំ" sheetId="10" r:id="rId9"/>
     <sheet name="6 years_៦ ឆ្នាំ" sheetId="11" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -51,424 +40,424 @@
     <t>Khmer</t>
   </si>
   <si>
-    <t>By age 6 months, your child can:</t>
-  </si>
-  <si>
-    <t>នៅពេលអាយុ ៦ ខែ កុមារអាច៖</t>
-  </si>
-  <si>
     <t>smile_back_during_interaction</t>
   </si>
   <si>
-    <t>Smile back to you during interaction?</t>
-  </si>
-  <si>
     <t>សើចតបពេលសើចដាក់</t>
   </si>
   <si>
     <t>follow_object_passed_midline</t>
   </si>
   <si>
-    <t>Follow object passed midline?</t>
-  </si>
-  <si>
     <t>ភ្នែកតាមមើលវត្ថុពាក់កណ្តាល</t>
   </si>
   <si>
     <t>turns_head_to_sounds</t>
   </si>
   <si>
-    <t>Turns head to sounds?</t>
-  </si>
-  <si>
     <t>ងាករកសម្លេងឭ</t>
   </si>
   <si>
     <t>head_up_45_degrees</t>
   </si>
   <si>
-    <t>Head up 45 degrees?</t>
-  </si>
-  <si>
     <t>ងើបក្បាលឡើងលើពាក់កណ្តាល (មុំ៤៥ដឺក្រេ)</t>
   </si>
   <si>
-    <t>By age 9 months, your child can:</t>
-  </si>
-  <si>
-    <t>នៅពេលអាយុ ៩ ខែ កុមារអាច៖</t>
-  </si>
-  <si>
     <t>explore_environment</t>
   </si>
   <si>
-    <t>Explore environment?</t>
-  </si>
-  <si>
     <t>រពឹស</t>
   </si>
   <si>
     <t>follow_object_one_hundred_eighty_degrees</t>
   </si>
   <si>
-    <t>Follow object 180 degrees?</t>
-  </si>
-  <si>
     <t>ភ្នែកតាមមើលបាន​ ១៨០ដឺក្រេ</t>
   </si>
   <si>
     <t>squeal</t>
   </si>
   <si>
-    <t>Squeal?</t>
-  </si>
-  <si>
     <t>ធ្វើសំលេងស្រួយពេលសប្បាយចិត្ត</t>
   </si>
   <si>
     <t>chest_up_with_arm_support</t>
   </si>
   <si>
-    <t>Chest up with arm support?</t>
-  </si>
-  <si>
     <t>ងើបទ្រូងដោយយកដៃជួយ</t>
   </si>
   <si>
-    <t>By age 12 months, your child can:</t>
-  </si>
-  <si>
-    <t>នៅពេលអាយុ ១២ ខែ កុមារអាច៖</t>
-  </si>
-  <si>
-    <t>recognize_stranger</t>
-  </si>
-  <si>
-    <t>Recognize stranger?</t>
-  </si>
-  <si>
-    <t>ស្គាល់មនុស្សចម្លែក</t>
-  </si>
-  <si>
     <t>rake_lotus_seed</t>
   </si>
   <si>
-    <t>Rake lotus seed (≥1 /3 attempts)?</t>
-  </si>
-  <si>
     <t>ខ្វារទាញគ្រាប់ឈូក</t>
   </si>
   <si>
     <t>babble</t>
   </si>
   <si>
-    <t>Babble?</t>
-  </si>
-  <si>
     <t>បញ្ចេញសម្លេងកែរករ អរ</t>
   </si>
   <si>
     <t>pull_up_to_stand</t>
   </si>
   <si>
-    <t>Pull up to stand (≥2 sec)?</t>
-  </si>
-  <si>
     <t>កាន់ទប់ឈរលើស ឬស្មើ២វិនាទី</t>
   </si>
   <si>
-    <t xml:space="preserve">By age 18 months, your child can: </t>
-  </si>
-  <si>
-    <t>នៅពេលអាយុ ១៨ ខែ កុមារអាច៖</t>
-  </si>
-  <si>
     <t>hold_and_drink_from_cup</t>
   </si>
   <si>
-    <t>Hold and drink from cup?</t>
-  </si>
-  <si>
     <t>កាន់ និងផឹកទឹកនឹងពែង</t>
   </si>
   <si>
     <t>transfer_objects_between_hands</t>
   </si>
   <si>
-    <t>Transfer objects between hands?</t>
-  </si>
-  <si>
     <t>ប្តូរវត្ថុពីដៃម្ខាងទៅដៃម្ខាងទៀត</t>
   </si>
   <si>
     <t>say_ma_or_pa_non_specific</t>
   </si>
   <si>
-    <t>Say ‘Ma’ or ‘Pa’ (non-specific)?</t>
-  </si>
-  <si>
     <t>ហៅម៉ាក់/ប៉ា (មិនច្បាស់)</t>
   </si>
   <si>
     <t>walk_alone_five_steps</t>
   </si>
   <si>
-    <t>Walk alone (≥5 steps)?</t>
-  </si>
-  <si>
     <t>ដើរខ្លួនឯង លើសឬស្មើ៥ជំហាន</t>
   </si>
   <si>
-    <t>By age 24 months, your child can:</t>
-  </si>
-  <si>
-    <t>នៅពេលអាយុ ២៤ ខែ កុមារអាច៖</t>
-  </si>
-  <si>
     <t>play_woh_vak_eu</t>
   </si>
   <si>
-    <t>Play ‘woh...vak-eu’?</t>
-  </si>
-  <si>
     <t>លេងវ៉ាក់អឹម</t>
   </si>
   <si>
     <t>bang_two_objects_together</t>
   </si>
   <si>
-    <t>Bang 2 objects together?</t>
-  </si>
-  <si>
     <t>កាន់វត្ថុ២គោះគ្នា</t>
   </si>
   <si>
     <t>say_at_least_one_word_besides_mak_pa</t>
   </si>
   <si>
-    <t>Say at least 1 word besides mak/pa?</t>
-  </si>
-  <si>
     <t>និយាយមួយពាក្យឬច្រើនក្រៅពី (ម៉ាក់/ប៉ា/បង)</t>
   </si>
   <si>
     <t>stoop_and_recover</t>
   </si>
   <si>
-    <t>Stoop and recover?</t>
-  </si>
-  <si>
     <t>ឱនចាប់វត្ថុ និងងើបឡើងវិញដោយខ្លួនឯង</t>
   </si>
   <si>
-    <t xml:space="preserve">By age 30 months, your child can: </t>
-  </si>
-  <si>
-    <t>នៅពេលអាយុ ៣០ ខែ កុមារអាច៖</t>
-  </si>
-  <si>
     <t>use_spoon</t>
   </si>
   <si>
-    <t>Use spoon?</t>
-  </si>
-  <si>
     <t>ញ៉ាំបាយនឹងស្លាបព្រា</t>
   </si>
   <si>
     <t>two_step_command</t>
   </si>
   <si>
-    <t>Two step command?</t>
-  </si>
-  <si>
     <t>ចាប់វត្ថុដោយម្រាមពីរ</t>
   </si>
   <si>
     <t>take_object_with_thumb_index_finger</t>
   </si>
   <si>
-    <t>Take object with thumb / index finger?</t>
-  </si>
-  <si>
     <t>ធ្វើការបញ្ជាពីរដំណាក់កាល</t>
   </si>
   <si>
     <t>run_with_good_balance</t>
   </si>
   <si>
-    <t>Run with good balance (≥2 meters)?</t>
-  </si>
-  <si>
     <t>រត់បាន ២ម៉ែត្រ ឬលើស</t>
   </si>
   <si>
-    <t>By age 36 months, your child can:</t>
-  </si>
-  <si>
-    <t>នៅពេលអាយុ ៣៦ ខែ កុមារអាច៖</t>
-  </si>
-  <si>
     <t>put_on_simple_clothes_with_help</t>
   </si>
   <si>
-    <t>Put on simple clothes with help?</t>
-  </si>
-  <si>
     <t>ស្លៀកសំលៀកបំពាក់ងាយៗដោយជួយ</t>
   </si>
   <si>
     <t>scribble_with_pencil</t>
   </si>
   <si>
-    <t>Scribble with pencil?</t>
-  </si>
-  <si>
     <t>ប្រើខ្មៅដៃគូសលើក្រដាស</t>
   </si>
   <si>
     <t>say_words</t>
   </si>
   <si>
-    <t>Say ≥ 6 words?</t>
-  </si>
-  <si>
     <t>និយាយ ៦ ឬលើសពី ៦ពាក្យ</t>
   </si>
   <si>
     <t>walk_backward_steps</t>
   </si>
   <si>
-    <t>Walk backward (≥2 steps)?</t>
-  </si>
-  <si>
     <t>ដើរថយក្រោយ ២ជំហានឬលើស</t>
   </si>
   <si>
-    <t>By age 48 months, your child can:</t>
-  </si>
-  <si>
-    <t>នៅពេលអាយុ ៤៨ ខែ កុមារអាច៖</t>
-  </si>
-  <si>
     <t>play_well_with_others</t>
   </si>
   <si>
-    <t>Play well with others (sharing)?</t>
-  </si>
-  <si>
     <t>លេងជុំគ្នា</t>
   </si>
   <si>
     <t>wiggle_with_thumb</t>
   </si>
   <si>
-    <t>Wiggle with thumb?</t>
-  </si>
-  <si>
     <t>ធ្វើចលនាមេដៃពេលក្តាប់ដៃ</t>
   </si>
   <si>
     <t>know_use_action_objects</t>
   </si>
   <si>
-    <t>Know use/action of objects (1/3?</t>
-  </si>
-  <si>
     <t>ដឹងពីការប្រើប្រាស់/សកម្មភាពវត្ថុ១ក្នុងចំណោម៣</t>
   </si>
   <si>
     <t>kick_ball_forward</t>
   </si>
   <si>
-    <t>Kick ball forward?</t>
-  </si>
-  <si>
     <t>ទាត់បាល់</t>
   </si>
   <si>
-    <t>By age 60 months, your child can:</t>
-  </si>
-  <si>
-    <t>នៅពេលអាយុ ៦០ ខែ កុមារអាច៖</t>
-  </si>
-  <si>
     <t>dress_without_help</t>
   </si>
   <si>
-    <t>Dress without help ((un)button)?</t>
-  </si>
-  <si>
     <t>ស្លៀកពាក់ដោយខ្លួនឯង</t>
   </si>
   <si>
     <t>fold_paper</t>
   </si>
   <si>
-    <t>Fold a paper?</t>
-  </si>
-  <si>
     <t>ចេះបត់ក្រដាស</t>
   </si>
   <si>
     <t>use_pronouns_correctly</t>
   </si>
   <si>
-    <t>Use pronouns correctly (me, you)?</t>
-  </si>
-  <si>
     <t>ប្រើសព្វនាមបានត្រឹមត្រូវ</t>
   </si>
   <si>
     <t>throw_object_overhand</t>
   </si>
   <si>
-    <t>Throw object overhand?</t>
-  </si>
-  <si>
     <t>ចោលវត្ថុរំលងក្បាល</t>
   </si>
   <si>
-    <t xml:space="preserve">By age 72 months, your child can: </t>
-  </si>
-  <si>
-    <t>នៅពេលអាយុ ៧២ ខែ កុមារអាច៖</t>
-  </si>
-  <si>
     <t>play_kid_games</t>
   </si>
   <si>
-    <t>Play kid games (team/wait turns)?</t>
-  </si>
-  <si>
     <t>លេងល្បែងក្មេង</t>
   </si>
   <si>
     <t>catch_soft_ball</t>
   </si>
   <si>
-    <t>Catch soft ball?</t>
-  </si>
-  <si>
     <t>ចាប់បាល់ទន់ៗ</t>
   </si>
   <si>
     <t>count_one_to_five</t>
   </si>
   <si>
-    <t>Count 1 to 5?</t>
-  </si>
-  <si>
     <t>រាប់ពី១ដល់៥</t>
   </si>
   <si>
     <t>straight_heel_to_toes_walk</t>
   </si>
   <si>
-    <t>Straight heel-to-toes walk (≥4 steps)?</t>
-  </si>
-  <si>
     <t>ដើរចុងជើងបាន ៤ជំហានឬលើស</t>
+  </si>
+  <si>
+    <t>show_separation anxiety</t>
+  </si>
+  <si>
+    <t>Smile back to you during interaction</t>
+  </si>
+  <si>
+    <t>Follow object passed midline</t>
+  </si>
+  <si>
+    <t>Turns head to sounds</t>
+  </si>
+  <si>
+    <t>Head up 45 degrees</t>
+  </si>
+  <si>
+    <t>Explore environment</t>
+  </si>
+  <si>
+    <t>Follow object 180 degrees</t>
+  </si>
+  <si>
+    <t>By age 6 months, can your child…?</t>
+  </si>
+  <si>
+    <t>នៅពេលអាយុ ៦ ខែ តើកុមារអាច...?</t>
+  </si>
+  <si>
+    <t>By age 9 months, can your child…?</t>
+  </si>
+  <si>
+    <t>នៅពេលអាយុ ៩ ខែ តើកុមារអាច…?</t>
+  </si>
+  <si>
+    <t>By age 12 months, can your child…?</t>
+  </si>
+  <si>
+    <t>By age 18 months, can your child…?</t>
+  </si>
+  <si>
+    <t>By age 24 months, can your child…?</t>
+  </si>
+  <si>
+    <t>By age 30 months, can your child…?</t>
+  </si>
+  <si>
+    <t>By age 36 months, can your child…?</t>
+  </si>
+  <si>
+    <t>By age 48 months, can your child…?</t>
+  </si>
+  <si>
+    <t>By age 60 months, can your child…?</t>
+  </si>
+  <si>
+    <t>By age 72 months, can your child…?</t>
+  </si>
+  <si>
+    <t>នៅពេលអាយុ ១២ ខែ តើកុមារអាច...?</t>
+  </si>
+  <si>
+    <t>នៅពេលអាយុ ១៨ ខែ តើកុមារអាច...?</t>
+  </si>
+  <si>
+    <t>នៅពេលអាយុ ២៤ ខែ តើកុមារអាច...?</t>
+  </si>
+  <si>
+    <t>នៅពេលអាយុ ៣០ ខែ តើកុមារអាច...?</t>
+  </si>
+  <si>
+    <t>នៅពេលអាយុ ៣៦ ខែ តើកុមារអាច...?</t>
+  </si>
+  <si>
+    <t>នៅពេលអាយុ ៤៨ ខែ តើកុមារអាច...?</t>
+  </si>
+  <si>
+    <t>នៅពេលអាយុ ៦០ ខែ តើកុមារអាច...?</t>
+  </si>
+  <si>
+    <t>នៅពេលអាយុ ៧២ ខែ តើកុមារអាច...?</t>
+  </si>
+  <si>
+    <t>Squeal</t>
+  </si>
+  <si>
+    <t>Chest up with arm support</t>
+  </si>
+  <si>
+    <t>Show separation anxiety</t>
+  </si>
+  <si>
+    <t>Rake lotus seed (≥1 /3 attempts)</t>
+  </si>
+  <si>
+    <t>Babble</t>
+  </si>
+  <si>
+    <t>Pull up to stand (≥2 sec)</t>
+  </si>
+  <si>
+    <t>Hold and drink from cup</t>
+  </si>
+  <si>
+    <t>Transfer objects between hands</t>
+  </si>
+  <si>
+    <t>Say ‘Ma’ or ‘Pa’ (non-specific)</t>
+  </si>
+  <si>
+    <t>Walk alone (≥5 steps)</t>
+  </si>
+  <si>
+    <t>Play ‘woh...vak-eu’</t>
+  </si>
+  <si>
+    <t>Bang 2 objects together</t>
+  </si>
+  <si>
+    <t>Say at least 1 word besides mak/pa</t>
+  </si>
+  <si>
+    <t>Stoop and recover</t>
+  </si>
+  <si>
+    <t>Use spoon</t>
+  </si>
+  <si>
+    <t>Two step command</t>
+  </si>
+  <si>
+    <t>Take object with thumb / index finger</t>
+  </si>
+  <si>
+    <t>Run with good balance (≥2 meters)</t>
+  </si>
+  <si>
+    <t>Put on simple clothes with help</t>
+  </si>
+  <si>
+    <t>Scribble with pencil</t>
+  </si>
+  <si>
+    <t>Say ≥ 6 words</t>
+  </si>
+  <si>
+    <t>Walk backward (≥2 steps)</t>
+  </si>
+  <si>
+    <t>Play well with others (sharing)</t>
+  </si>
+  <si>
+    <t>Wiggle with thumb</t>
+  </si>
+  <si>
+    <t>Know use/action of objects (1/3)</t>
+  </si>
+  <si>
+    <t>Kick ball forward</t>
+  </si>
+  <si>
+    <t>Dress without help ((un)button)</t>
+  </si>
+  <si>
+    <t>Fold a paper</t>
+  </si>
+  <si>
+    <t>Use pronouns correctly (me, you)</t>
+  </si>
+  <si>
+    <t>Throw object overhand</t>
+  </si>
+  <si>
+    <t>Play kid games (team/wait turns)</t>
+  </si>
+  <si>
+    <t>Catch soft ball</t>
+  </si>
+  <si>
+    <t>Count 1 to 5</t>
+  </si>
+  <si>
+    <t>Straight heel-to-toes walk (≥4 steps)</t>
+  </si>
+  <si>
+    <t>បង្ហាញការថប់បារម្ភពីការបែងចែក</t>
   </si>
 </sst>
 </file>
@@ -753,8 +742,8 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -777,54 +766,54 @@
     <row r="2" spans="1:3" ht="15">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="27.75" customHeight="1">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -838,7 +827,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A1:XFD6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -861,54 +850,54 @@
     </row>
     <row r="2" spans="1:3" ht="15">
       <c r="B2" s="4" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
       <c r="A3" s="4" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>133</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
       <c r="A4" s="4" t="s">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15">
       <c r="A5" s="4" t="s">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>139</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
       <c r="A6" s="4" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
         <v>141</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>142</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -921,7 +910,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -944,54 +933,54 @@
     </row>
     <row r="2" spans="1:3" ht="15">
       <c r="B2" s="4" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
       <c r="A3" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
       <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15">
       <c r="A5" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
       <c r="A6" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1003,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1027,54 +1016,54 @@
     </row>
     <row r="2" spans="1:3" ht="15">
       <c r="B2" s="4" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
       <c r="A3" s="4" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
       <c r="A4" s="4" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15">
       <c r="A5" s="4" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
       <c r="A6" s="4" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1087,7 +1076,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1110,54 +1099,54 @@
     </row>
     <row r="2" spans="1:3" ht="15">
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
       <c r="A3" s="4" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
       <c r="A4" s="4" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15">
       <c r="A5" s="4" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
       <c r="A6" s="4" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1170,7 +1159,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1193,54 +1182,54 @@
     </row>
     <row r="2" spans="1:3" ht="15">
       <c r="B2" s="4" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
       <c r="A3" s="4" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
       <c r="A4" s="4" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15">
       <c r="A5" s="4" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
       <c r="A6" s="4" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1253,7 +1242,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1276,54 +1265,54 @@
     </row>
     <row r="2" spans="1:3" ht="15">
       <c r="B2" s="4" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
       <c r="A3" s="4" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
       <c r="A4" s="4" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15">
       <c r="A5" s="4" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
       <c r="A6" s="4" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1336,7 +1325,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1359,54 +1348,54 @@
     </row>
     <row r="2" spans="1:3" ht="15">
       <c r="B2" s="4" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
       <c r="A3" s="4" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
       <c r="A4" s="4" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15">
       <c r="A5" s="4" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
       <c r="A6" s="4" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1419,7 +1408,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1442,54 +1431,54 @@
     </row>
     <row r="2" spans="1:3" ht="15">
       <c r="B2" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
       <c r="A3" s="4" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
       <c r="A4" s="4" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15">
       <c r="A5" s="4" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
       <c r="A6" s="4" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1502,7 +1491,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1524,54 +1513,54 @@
     </row>
     <row r="2" spans="1:3" ht="15">
       <c r="B2" s="4" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
       <c r="A3" s="4" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
       <c r="A4" s="4" t="s">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15">
       <c r="A5" s="4" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>125</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
       <c r="A6" s="4" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/db/support/cbdmat_markers.xlsx
+++ b/db/support/cbdmat_markers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25518"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\kiry\Documents\oscar-web\db\support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5D8638-78D5-43C0-B2A4-D17E5631D6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046CB063-718C-4975-AD39-93CCF7C81808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3480" yWindow="750" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3 months_៣ ខែ" sheetId="12" r:id="rId1"/>
@@ -29,9 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -127,12 +125,6 @@
     <t>ធ្វើសំឡេងកកែកករ</t>
   </si>
   <si>
-    <t>pull_chess_up_with_arm_support</t>
-  </si>
-  <si>
-    <t>Pull chess up with arm support</t>
-  </si>
-  <si>
     <t>ងើបទ្រូងដោយច្រត់ដៃ</t>
   </si>
   <si>
@@ -145,9 +137,6 @@
     <t>recognize_stranger</t>
   </si>
   <si>
-    <t>Recognize starnger</t>
-  </si>
-  <si>
     <t>ស្គាល់មនុស្សប្លែកមុខ</t>
   </si>
   <si>
@@ -470,6 +459,15 @@
   </si>
   <si>
     <t>ឈរជើងមួយបាន ៣វិនាទី ឬលើស</t>
+  </si>
+  <si>
+    <t>pull_chest_up_with_arm_support</t>
+  </si>
+  <si>
+    <t>Pull chest up with arm support</t>
+  </si>
+  <si>
+    <t>Recognize stranger</t>
   </si>
 </sst>
 </file>
@@ -773,7 +771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="27.75">
+    <row r="2" spans="1:3" ht="15">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -782,7 +780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="27.75">
+    <row r="3" spans="1:3" ht="15">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -793,7 +791,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="27.75">
+    <row r="4" spans="1:3" ht="15">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -804,7 +802,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="27.75">
+    <row r="5" spans="1:3" ht="15">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -815,7 +813,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="27.75">
+    <row r="6" spans="1:3" ht="15">
       <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
@@ -835,7 +833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -856,56 +854,56 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="27.75">
+    <row r="2" spans="1:3" ht="15">
       <c r="B2" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15">
+      <c r="A3" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="27.75">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:3" ht="15">
+      <c r="A4" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="27.75">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="1:3" ht="15">
+      <c r="A5" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="27.75">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="1:3" ht="15">
+      <c r="A6" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="27.75">
-      <c r="A6" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -920,8 +918,8 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -941,7 +939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="27.75">
+    <row r="2" spans="1:3" ht="15">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>17</v>
@@ -950,7 +948,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="27.75">
+    <row r="3" spans="1:3" ht="15">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -985,13 +983,13 @@
     </row>
     <row r="6" spans="1:3" ht="27.75" customHeight="1">
       <c r="A6" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1026,56 +1024,56 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="27.75">
+    <row r="2" spans="1:3" ht="15">
       <c r="B2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15">
+      <c r="A3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="27.75">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:3" ht="15">
+      <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="27.75">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="1:3" ht="15">
+      <c r="A5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="27.75">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="1:3" ht="15">
+      <c r="A6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="27.75">
-      <c r="A6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1109,56 +1107,56 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="27.75">
+    <row r="2" spans="1:3" ht="15">
       <c r="B2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15">
+      <c r="A3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="27.75">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:3" ht="15">
+      <c r="A4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="27.75">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="1:3" ht="15">
+      <c r="A5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="27.75">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="1:3" ht="15">
+      <c r="A6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="27.75">
-      <c r="A6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1192,56 +1190,56 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="27.75">
+    <row r="2" spans="1:3" ht="15">
       <c r="B2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15">
+      <c r="A3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="27.75">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:3" ht="15">
+      <c r="A4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="27.75">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="1:3" ht="15">
+      <c r="A5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="27.75">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="1:3" ht="15">
+      <c r="A6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="27.75">
-      <c r="A6" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1275,56 +1273,56 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="27.75">
+    <row r="2" spans="1:3" ht="15">
       <c r="B2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15">
+      <c r="A3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="27.75">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:3" ht="15">
+      <c r="A4" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="27.75">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="1:3" ht="15">
+      <c r="A5" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="27.75">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="1:3" ht="15">
+      <c r="A6" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="27.75">
-      <c r="A6" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1358,56 +1356,56 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="27.75">
+    <row r="2" spans="1:3" ht="15">
       <c r="B2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15">
+      <c r="A3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="27.75">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:3" ht="15">
+      <c r="A4" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="27.75">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="1:3" ht="15">
+      <c r="A5" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="27.75">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="1:3" ht="15">
+      <c r="A6" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="27.75">
-      <c r="A6" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1441,56 +1439,56 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="27.75">
+    <row r="2" spans="1:3" ht="15">
       <c r="B2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15">
+      <c r="A3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="27.75">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:3" ht="15">
+      <c r="A4" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="27.75">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="1:3" ht="15">
+      <c r="A5" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="27.75">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="1:3" ht="15">
+      <c r="A6" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="27.75">
-      <c r="A6" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1524,56 +1522,56 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="27.75">
+    <row r="2" spans="1:3" ht="15">
       <c r="B2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15">
+      <c r="A3" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="27.75">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:3" ht="15">
+      <c r="A4" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="27.75">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="1:3" ht="15">
+      <c r="A5" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="27.75">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="1:3" ht="15">
+      <c r="A6" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="27.75">
-      <c r="A6" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
